--- a/analysis/성별별_판매량.xlsx
+++ b/analysis/성별별_판매량.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>726798000</v>
+        <v>728595000</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>676579000</v>
+        <v>674782000</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1559491600</v>
+        <v>1560990000</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1479274000</v>
+        <v>1477775600</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1339248100</v>
+        <v>1353370100</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1270986100</v>
+        <v>1256864100</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1554217000</v>
+        <v>1548061000</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1466030000</v>
+        <v>1472186000</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2688814000</v>
+        <v>2691078000</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2513540000</v>
+        <v>2511276000</v>
       </c>
     </row>
   </sheetData>
